--- a/src/main/resources/TestData/UserCredentials.xlsx
+++ b/src/main/resources/TestData/UserCredentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yours\git\DieticianAPI\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780E681-D9A2-4623-BC3D-6D6C737EBE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C9E09-88E4-4166-B60B-74510F15DE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="495" windowWidth="15600" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>password</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Vegan</t>
-  </si>
-  <si>
-    <t>1989-02-02</t>
   </si>
   <si>
     <t>2909909909</t>
@@ -550,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -585,34 +582,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -628,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,51 +668,29 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2482482481</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1201201201</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1201201201</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,6 +781,13 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,22 +810,12 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{4DABB20E-36C7-46FF-B649-BB097A55AB28}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4DABB20E-36C7-46FF-B649-BB097A55AB28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -891,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -903,7 +875,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/UserCredentials.xlsx
+++ b/src/main/resources/TestData/UserCredentials.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C9E09-88E4-4166-B60B-74510F15DE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="225" windowWidth="15600" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>password</t>
   </si>
@@ -124,6 +124,90 @@
   </si>
   <si>
     <t>vivienobitulata.ugwu@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t>dsdsdsds</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reshmaasawant1805@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thank94</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>csdssfsfsf</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>aa@aa.com</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -133,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +259,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF1D1C1D"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF6D6D6D"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF1D1C1D"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -230,6 +338,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,15 +659,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -572,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -580,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -588,7 +699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -596,7 +707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -604,12 +715,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +758,9 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{BB06F525-E923-4F9F-8C27-9232E5FBFF25}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{6FAC604E-F4B7-4713-BD54-BFA7EC8E3B8F}"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -627,11 +770,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
@@ -643,7 +786,7 @@
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -667,7 +810,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -690,97 +833,97 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -790,7 +933,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -800,7 +943,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -827,12 +970,18 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -855,7 +1004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
